--- a/pokedex.xlsx
+++ b/pokedex.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
